--- a/data/trans_orig/P25D_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>21983</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12463</v>
+        <v>12563</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37795</v>
+        <v>39884</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0441748057043589</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02504366855339886</v>
+        <v>0.02524460377658636</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0759475261963129</v>
+        <v>0.0801470868241316</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -762,19 +762,19 @@
         <v>17322</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11524</v>
+        <v>11023</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28520</v>
+        <v>25767</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0277788725815643</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01848101092145648</v>
+        <v>0.01767648198283411</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04573563863626308</v>
+        <v>0.04132128865343583</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -783,19 +783,19 @@
         <v>39306</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27419</v>
+        <v>26500</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57926</v>
+        <v>55760</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.035056020447246</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02445457997210073</v>
+        <v>0.02363496341705661</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0516628793712927</v>
+        <v>0.04973154020760245</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>8886</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3528</v>
+        <v>3625</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20389</v>
+        <v>21300</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01785651994935362</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00709028131267887</v>
+        <v>0.007284073611020518</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04097035849058276</v>
+        <v>0.04280132971560851</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -833,19 +833,19 @@
         <v>9555</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4890</v>
+        <v>5024</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17149</v>
+        <v>17912</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01532273230967302</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00784140164492012</v>
+        <v>0.008057390976915773</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02750149304406633</v>
+        <v>0.02872379532252708</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -854,19 +854,19 @@
         <v>18441</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10966</v>
+        <v>10527</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>30415</v>
+        <v>32256</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01644732504715849</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.009780236552954361</v>
+        <v>0.009388677815864662</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02712706644858271</v>
+        <v>0.02876847201986573</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>5996</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2129</v>
+        <v>2115</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13389</v>
+        <v>14030</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01204803156109636</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00427854472483942</v>
+        <v>0.004249611751137576</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0269058652308413</v>
+        <v>0.02819350463551383</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -904,19 +904,19 @@
         <v>3616</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1349</v>
+        <v>1325</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7971</v>
+        <v>8107</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.005798365639650372</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002163237961254474</v>
+        <v>0.002124944321007851</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01278317521408693</v>
+        <v>0.01300053885488465</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -925,19 +925,19 @@
         <v>9611</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4340</v>
+        <v>4818</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>18285</v>
+        <v>18253</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0085722085603833</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003870551505454791</v>
+        <v>0.004297009788253658</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01630775758355955</v>
+        <v>0.01627944885562022</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>7041</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1711</v>
+        <v>2620</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18049</v>
+        <v>19119</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01414921383298259</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003438164114179649</v>
+        <v>0.005264343454717446</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03626947971727394</v>
+        <v>0.03841994943557246</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -975,19 +975,19 @@
         <v>7219</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2806</v>
+        <v>2513</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16916</v>
+        <v>15769</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01157639202189521</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004499127195393418</v>
+        <v>0.004030175943871565</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02712797418927727</v>
+        <v>0.02528818356897028</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -996,19 +996,19 @@
         <v>14260</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6993</v>
+        <v>6798</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26320</v>
+        <v>29163</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01271830963104332</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006236903024320578</v>
+        <v>0.006062744895837667</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02347467883168874</v>
+        <v>0.02600980854876967</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>5669</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18356</v>
+        <v>18793</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01139080595640796</v>
+        <v>0.01139080595640797</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001775968415707563</v>
+        <v>0.001768065962904016</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03688687011646686</v>
+        <v>0.03776421204732776</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -1046,19 +1046,19 @@
         <v>5071</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1495</v>
+        <v>1456</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12866</v>
+        <v>12874</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.008132071669226262</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002398002732058685</v>
+        <v>0.002334367879191235</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02063263363733258</v>
+        <v>0.02064588195675592</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -1067,19 +1067,19 @@
         <v>10740</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5133</v>
+        <v>4365</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>26087</v>
+        <v>23578</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.009578423705745558</v>
+        <v>0.009578423705745557</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004578177169382586</v>
+        <v>0.003892817260358469</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02326628509697976</v>
+        <v>0.02102897422041426</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>448066</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>426062</v>
+        <v>428111</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>462785</v>
+        <v>463419</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9003806229958006</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8561630591694894</v>
+        <v>0.8602809290074264</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9299566414899224</v>
+        <v>0.931231066370534</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>812</v>
@@ -1117,19 +1117,19 @@
         <v>580797</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>565817</v>
+        <v>567101</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>591238</v>
+        <v>592285</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.9313915657779906</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.9073680504391227</v>
+        <v>0.9094272455518428</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9481356501778513</v>
+        <v>0.9498141986385619</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1233</v>
@@ -1138,19 +1138,19 @@
         <v>1028864</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1006134</v>
+        <v>1005720</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1048896</v>
+        <v>1051087</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.9176277126084234</v>
+        <v>0.9176277126084232</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8973549785246755</v>
+        <v>0.8969854197832474</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.93549327694225</v>
+        <v>0.9374480452492282</v>
       </c>
     </row>
     <row r="10">
@@ -1242,19 +1242,19 @@
         <v>30529</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18939</v>
+        <v>17510</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48260</v>
+        <v>47886</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0318185940650768</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01973859232998834</v>
+        <v>0.01825007975581106</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05029895713565247</v>
+        <v>0.04990923376892185</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>32</v>
@@ -1263,19 +1263,19 @@
         <v>29546</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19705</v>
+        <v>18870</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44066</v>
+        <v>42260</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02649462087259622</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01767019508735447</v>
+        <v>0.0169210099907001</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03951570448372915</v>
+        <v>0.0378960435134307</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>52</v>
@@ -1284,19 +1284,19 @@
         <v>60075</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>43571</v>
+        <v>43186</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>81726</v>
+        <v>81910</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02895683629500195</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02100184632908139</v>
+        <v>0.02081611552465505</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03939292658920794</v>
+        <v>0.03948154824961249</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>16926</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9776</v>
+        <v>9524</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28372</v>
+        <v>29763</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01764111145700282</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01018908971978737</v>
+        <v>0.009926743387564404</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02957041796706726</v>
+        <v>0.03101982565964432</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -1334,19 +1334,19 @@
         <v>9187</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4990</v>
+        <v>5046</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15328</v>
+        <v>15561</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.008238556734997286</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.004474506162436206</v>
+        <v>0.004524489615208156</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01374528532187714</v>
+        <v>0.01395410965431012</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>27</v>
@@ -1355,19 +1355,19 @@
         <v>26113</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17280</v>
+        <v>17454</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>38162</v>
+        <v>39144</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01258702251601094</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008329118832574247</v>
+        <v>0.00841319155644449</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01839476025229868</v>
+        <v>0.01886802436054932</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>11903</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4715</v>
+        <v>4402</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29344</v>
+        <v>26679</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01240608340381028</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004914226401991109</v>
+        <v>0.004587612212035946</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03058368352261169</v>
+        <v>0.02780652515345278</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1405,19 +1405,19 @@
         <v>3156</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1048</v>
+        <v>864</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6885</v>
+        <v>6919</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002830261561370913</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0009398763775496894</v>
+        <v>0.0007745200565263772</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.006174052949723763</v>
+        <v>0.006204322077351327</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -1426,19 +1426,19 @@
         <v>15059</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7410</v>
+        <v>6843</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33932</v>
+        <v>30860</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00725885940930229</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003571683680791763</v>
+        <v>0.003298646951885384</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.016355513652476</v>
+        <v>0.01487485903019282</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>12933</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4501</v>
+        <v>5153</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27391</v>
+        <v>29126</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01347963626467199</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004690837098091041</v>
+        <v>0.005371164798972968</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02854836506220198</v>
+        <v>0.03035585981304848</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1476,19 +1476,19 @@
         <v>10675</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5575</v>
+        <v>5414</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19510</v>
+        <v>19523</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.009572287376044609</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004999105054705316</v>
+        <v>0.004855317185932949</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01749513073770366</v>
+        <v>0.01750708165936634</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -1497,19 +1497,19 @@
         <v>23608</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14112</v>
+        <v>14018</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>41057</v>
+        <v>39556</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01137934656783135</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006802396869631067</v>
+        <v>0.006756953374641013</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01978986721062449</v>
+        <v>0.01906676656193177</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>14633</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5930</v>
+        <v>6009</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>32399</v>
+        <v>32117</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01525160999567603</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.006180358574347009</v>
+        <v>0.006263011334254729</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03376814403730163</v>
+        <v>0.03347344694352727</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -1547,19 +1547,19 @@
         <v>2955</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10798</v>
+        <v>9376</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.002649744546369585</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0004951886198950869</v>
+        <v>0.0004929302092934528</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.009683209751627559</v>
+        <v>0.008408113136205082</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>10</v>
@@ -1568,19 +1568,19 @@
         <v>17588</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>8247</v>
+        <v>8340</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>34648</v>
+        <v>35278</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.008477818118225271</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.003975381280477484</v>
+        <v>0.00401987567694042</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01670084894239164</v>
+        <v>0.01700466192287286</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>872544</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>845609</v>
+        <v>844789</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>896485</v>
+        <v>893635</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.909402964813762</v>
+        <v>0.9094029648137621</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8813300463412398</v>
+        <v>0.8804752305838056</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9343555273041111</v>
+        <v>0.9313854282336133</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1541</v>
@@ -1618,19 +1618,19 @@
         <v>1059642</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1040533</v>
+        <v>1042908</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1071785</v>
+        <v>1072410</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9502145289086215</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9330788194261018</v>
+        <v>0.9352081095371348</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9611032997688523</v>
+        <v>0.9616638406327409</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2395</v>
@@ -1639,19 +1639,19 @@
         <v>1932186</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1902656</v>
+        <v>1900224</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1957807</v>
+        <v>1957089</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9313401170936282</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9171064211880245</v>
+        <v>0.9159341321798222</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.943689841628677</v>
+        <v>0.943343810827547</v>
       </c>
     </row>
     <row r="17">
@@ -1743,19 +1743,19 @@
         <v>24521</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15512</v>
+        <v>15637</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>37845</v>
+        <v>38833</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.02346094991487149</v>
+        <v>0.02346094991487148</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01484115064757724</v>
+        <v>0.01496124666695869</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03620852613611052</v>
+        <v>0.03715327939721375</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>48</v>
@@ -1764,19 +1764,19 @@
         <v>31164</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>22481</v>
+        <v>22868</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>46413</v>
+        <v>43548</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.0297470333121195</v>
+        <v>0.02974703331211951</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02145908225265004</v>
+        <v>0.02182829434938799</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04430208219638192</v>
+        <v>0.04156804566671467</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>72</v>
@@ -1785,19 +1785,19 @@
         <v>55686</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>42910</v>
+        <v>42586</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>72088</v>
+        <v>73785</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02660766068721817</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02050313314363797</v>
+        <v>0.02034859688059266</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03444491449796952</v>
+        <v>0.03525575764545963</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>15485</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8918</v>
+        <v>8649</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28505</v>
+        <v>26728</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01481549127643692</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008532277253328098</v>
+        <v>0.008275326934784664</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02727264502739292</v>
+        <v>0.02557259432903054</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -1835,19 +1835,19 @@
         <v>9932</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5469</v>
+        <v>5876</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16279</v>
+        <v>16768</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.009480773682362834</v>
+        <v>0.009480773682362833</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005220070312164911</v>
+        <v>0.005608848961240567</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01553859957208273</v>
+        <v>0.01600506835759559</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>28</v>
@@ -1856,19 +1856,19 @@
         <v>25418</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16838</v>
+        <v>17450</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37792</v>
+        <v>39978</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0121450187007709</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008045358095435639</v>
+        <v>0.00833780228763437</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.018057873292863</v>
+        <v>0.01910207606588434</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>10499</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4751</v>
+        <v>4892</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21738</v>
+        <v>20198</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01004460617023391</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004545513155830274</v>
+        <v>0.004680604349016326</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02079817442413754</v>
+        <v>0.01932409143011271</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -1906,19 +1906,19 @@
         <v>8282</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3789</v>
+        <v>3893</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15898</v>
+        <v>15551</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.007905552035609845</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003616920865507632</v>
+        <v>0.003716124364770342</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01517459810820596</v>
+        <v>0.01484378251622613</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>18</v>
@@ -1927,19 +1927,19 @@
         <v>18781</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10803</v>
+        <v>11397</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30192</v>
+        <v>31151</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.008973830575528783</v>
+        <v>0.008973830575528785</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00516192595938979</v>
+        <v>0.005445729504504123</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01442650216470278</v>
+        <v>0.01488463524130547</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>13787</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7183</v>
+        <v>6931</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>29458</v>
+        <v>28963</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01319053149381169</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.006872326871362242</v>
+        <v>0.006631133828233116</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02818435949211238</v>
+        <v>0.02771038695277611</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1977,19 +1977,19 @@
         <v>4035</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14578</v>
+        <v>13800</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.003851715128594162</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0008085051930470141</v>
+        <v>0.000805833201669898</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01391495714804601</v>
+        <v>0.01317228932913313</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>13</v>
@@ -1998,19 +1998,19 @@
         <v>17822</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>8963</v>
+        <v>8559</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>31577</v>
+        <v>31438</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.008515672412199341</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.00428250784633466</v>
+        <v>0.004089894768285808</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01508789503466136</v>
+        <v>0.01502152179009934</v>
       </c>
     </row>
     <row r="22">
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16289</v>
+        <v>18037</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004462729958628923</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01558474268336709</v>
+        <v>0.01725721499101899</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -2048,19 +2048,19 @@
         <v>4915</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1766</v>
+        <v>1689</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11682</v>
+        <v>12241</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004691453660054481</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001685845078244688</v>
+        <v>0.001611929445959065</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01115109421598763</v>
+        <v>0.01168428971177288</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7</v>
@@ -2069,19 +2069,19 @@
         <v>9579</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4412</v>
+        <v>3810</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22752</v>
+        <v>22377</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.00457722531124895</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002108046163284923</v>
+        <v>0.001820530896402005</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01087142440577213</v>
+        <v>0.01069230430768992</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>976242</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>954076</v>
+        <v>955391</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>993532</v>
+        <v>993615</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.934025691186017</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9128179896819073</v>
+        <v>0.9140764557975383</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9505678083677047</v>
+        <v>0.9506474370541357</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1435</v>
@@ -2119,19 +2119,19 @@
         <v>989313</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>972907</v>
+        <v>973373</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1002508</v>
+        <v>1002102</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9443234721812592</v>
+        <v>0.9443234721812593</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9286640683713329</v>
+        <v>0.9291081502190522</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9569188248556663</v>
+        <v>0.9565308641326091</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2406</v>
@@ -2140,19 +2140,19 @@
         <v>1965555</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1938484</v>
+        <v>1941167</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1985916</v>
+        <v>1987956</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9391805923130339</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9262457602594856</v>
+        <v>0.9275278733151858</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.948909836200303</v>
+        <v>0.949884159656685</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>42231</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30829</v>
+        <v>31740</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>57427</v>
+        <v>57329</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.04346817181438907</v>
+        <v>0.04346817181438906</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03173264158715329</v>
+        <v>0.03266948682257637</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05910992765586774</v>
+        <v>0.05900893231196633</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>87</v>
@@ -2265,19 +2265,19 @@
         <v>47547</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>37079</v>
+        <v>37213</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>63691</v>
+        <v>61757</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0527042502046756</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04110036873594515</v>
+        <v>0.04124984397020883</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07059954802798113</v>
+        <v>0.06845590140056486</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>134</v>
@@ -2286,19 +2286,19 @@
         <v>89778</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>74502</v>
+        <v>74148</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>109058</v>
+        <v>110497</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.04791519708759585</v>
+        <v>0.04791519708759584</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03976209101232002</v>
+        <v>0.03957329327483924</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05820494957348295</v>
+        <v>0.05897342532942623</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>16378</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9940</v>
+        <v>9373</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25360</v>
+        <v>24664</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01685806826022867</v>
+        <v>0.01685806826022866</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01023164246711337</v>
+        <v>0.00964770664599407</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0261028624547659</v>
+        <v>0.02538680699858142</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -2336,19 +2336,19 @@
         <v>8985</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4516</v>
+        <v>4877</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16075</v>
+        <v>16988</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.009959503929870045</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.005005648862980667</v>
+        <v>0.005405873172663813</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01781867568947165</v>
+        <v>0.01883045508013721</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>30</v>
@@ -2357,19 +2357,19 @@
         <v>25363</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>16815</v>
+        <v>17147</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>36334</v>
+        <v>35766</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.01353651893706448</v>
+        <v>0.01353651893706447</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008974439825915954</v>
+        <v>0.009151620016173404</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01939194028116329</v>
+        <v>0.01908882310976542</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>13260</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6746</v>
+        <v>5919</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>25850</v>
+        <v>25694</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01364840798822532</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.006944121472525301</v>
+        <v>0.006092919867548005</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02660709656646031</v>
+        <v>0.02644713828843692</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>10</v>
@@ -2407,19 +2407,19 @@
         <v>10153</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>4328</v>
+        <v>4660</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>19666</v>
+        <v>20500</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0112546287636018</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.004797890798411293</v>
+        <v>0.005165282263773086</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.021798704427983</v>
+        <v>0.02272315207324222</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>19</v>
@@ -2428,19 +2428,19 @@
         <v>23413</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>13772</v>
+        <v>13950</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>38367</v>
+        <v>37453</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01249584125367123</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.007350027926512541</v>
+        <v>0.007445419529541731</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02047677864652487</v>
+        <v>0.01998886477737325</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>11032</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5098</v>
+        <v>5169</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>25520</v>
+        <v>24221</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01135545817450219</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005247616450491691</v>
+        <v>0.005320364697327063</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02626775800835995</v>
+        <v>0.02493101124296775</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -2478,19 +2478,19 @@
         <v>4356</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14035</v>
+        <v>13631</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.004828367934469608</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001303545324036772</v>
+        <v>0.001304864331055827</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01555698719723666</v>
+        <v>0.01510914377078041</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>12</v>
@@ -2499,19 +2499,19 @@
         <v>15388</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>7778</v>
+        <v>7632</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>29128</v>
+        <v>27932</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.008212767734753147</v>
+        <v>0.008212767734753145</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004151194723750346</v>
+        <v>0.004073166226345612</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01554596996865037</v>
+        <v>0.01490754514609001</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>7328</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21213</v>
+        <v>22625</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.007542717035803732</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0009589322003639248</v>
+        <v>0.0009443791216470106</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02183423701326483</v>
+        <v>0.02328813433979076</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -2549,19 +2549,19 @@
         <v>6782</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1959</v>
+        <v>1948</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>18397</v>
+        <v>18761</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.00751773566304774</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002171426563791629</v>
+        <v>0.002159261111702353</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02039266529341589</v>
+        <v>0.02079543934801232</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -2570,19 +2570,19 @@
         <v>14110</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5647</v>
+        <v>5789</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>31030</v>
+        <v>33245</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.007530688900992519</v>
+        <v>0.007530688900992517</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003014105453837717</v>
+        <v>0.003089474505926709</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01656080905309364</v>
+        <v>0.01774313422857576</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>881305</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>857442</v>
+        <v>859949</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>899318</v>
+        <v>899323</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9071271767268511</v>
+        <v>0.9071271767268508</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8825645899056741</v>
+        <v>0.8851459557216836</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9256679283733245</v>
+        <v>0.9256730930331424</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1195</v>
@@ -2620,19 +2620,19 @@
         <v>824325</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>805451</v>
+        <v>805782</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>839147</v>
+        <v>838864</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9137355135043352</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8928148886759494</v>
+        <v>0.8931817471393108</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9301658685500465</v>
+        <v>0.9298522636948916</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2053</v>
@@ -2641,19 +2641,19 @@
         <v>1705630</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1678410</v>
+        <v>1673812</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1731773</v>
+        <v>1729778</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9103089860859227</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8957815428831942</v>
+        <v>0.8933277795696377</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9242621596018107</v>
+        <v>0.9231970571173058</v>
       </c>
     </row>
     <row r="31">
@@ -2745,19 +2745,19 @@
         <v>119264</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>96651</v>
+        <v>94930</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>149456</v>
+        <v>147285</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.0343321003268081</v>
+        <v>0.03433210032680809</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02782247817026851</v>
+        <v>0.02732706320461332</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0430232325273359</v>
+        <v>0.04239821820784064</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>189</v>
@@ -2766,19 +2766,19 @@
         <v>125579</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>106534</v>
+        <v>105946</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>149591</v>
+        <v>150784</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03404590947569102</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02888243288120815</v>
+        <v>0.02872313368047571</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04055571632954839</v>
+        <v>0.04087916047456019</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>295</v>
@@ -2787,19 +2787,19 @@
         <v>244844</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>214402</v>
+        <v>216429</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>282370</v>
+        <v>282341</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.03418471568454269</v>
+        <v>0.0341847156845427</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02993455417491818</v>
+        <v>0.03021752274458137</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03942405760145547</v>
+        <v>0.03942009367023771</v>
       </c>
     </row>
     <row r="33">
@@ -2816,19 +2816,19 @@
         <v>57676</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>41248</v>
+        <v>42711</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>74991</v>
+        <v>74831</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01660281151498938</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01187374827998409</v>
+        <v>0.0122950060349732</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02158737744854384</v>
+        <v>0.0215413446440802</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>52</v>
@@ -2837,19 +2837,19 @@
         <v>37660</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>28262</v>
+        <v>27613</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>49665</v>
+        <v>49897</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01020993744786045</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.007662087036345022</v>
+        <v>0.007486064617352339</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01346466098233417</v>
+        <v>0.01352772776377241</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>103</v>
@@ -2858,19 +2858,19 @@
         <v>95335</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>77102</v>
+        <v>77759</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>116549</v>
+        <v>118578</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01331056281537574</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01076488023713028</v>
+        <v>0.01085663593511363</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01627241672551361</v>
+        <v>0.01655565851436845</v>
       </c>
     </row>
     <row r="34">
@@ -2887,19 +2887,19 @@
         <v>41657</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>28063</v>
+        <v>28957</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>61675</v>
+        <v>62417</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01199171992661005</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.008078452562357018</v>
+        <v>0.008335816014197847</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01775402114470854</v>
+        <v>0.01796778708005579</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>30</v>
@@ -2908,19 +2908,19 @@
         <v>25207</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>17290</v>
+        <v>16376</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>37745</v>
+        <v>37267</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.006834013244469193</v>
+        <v>0.006834013244469194</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.004687515185834783</v>
+        <v>0.004439623357556673</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01023311856451648</v>
+        <v>0.01010337933021804</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>59</v>
@@ -2929,19 +2929,19 @@
         <v>66865</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>49676</v>
+        <v>50076</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>89717</v>
+        <v>89200</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.009335566694282598</v>
+        <v>0.0093355666942826</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.006935629470676463</v>
+        <v>0.006991520043398683</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01252609416238422</v>
+        <v>0.01245403834386931</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>44793</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>29366</v>
+        <v>29878</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>67277</v>
+        <v>66535</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0128944994853116</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.008453392630678442</v>
+        <v>0.008600861629666222</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01936660463921374</v>
+        <v>0.01915320685692253</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>24</v>
@@ -2979,19 +2979,19 @@
         <v>26285</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>16290</v>
+        <v>15787</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>41546</v>
+        <v>40254</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.007126027227918604</v>
+        <v>0.007126027227918603</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.004416387305312135</v>
+        <v>0.004280025263445781</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01126345608360454</v>
+        <v>0.01091320383763367</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>53</v>
@@ -3000,19 +3000,19 @@
         <v>71078</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>52429</v>
+        <v>52234</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>97754</v>
+        <v>96864</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.00992380976285809</v>
+        <v>0.009923809762858093</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.007320008691515707</v>
+        <v>0.00729284052454583</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01364829823031691</v>
+        <v>0.01352397509134481</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>32294</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>17872</v>
+        <v>17198</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>54946</v>
+        <v>55548</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.009296456190342176</v>
+        <v>0.009296456190342172</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.005144695979290688</v>
+        <v>0.00495076646429193</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01581719634991316</v>
+        <v>0.01599044890144007</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>17</v>
@@ -3050,19 +3050,19 @@
         <v>19723</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>11025</v>
+        <v>11536</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>32960</v>
+        <v>32612</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.005347105245498951</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.002989043342822976</v>
+        <v>0.003127628723532291</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.008935803307446125</v>
+        <v>0.008841327240997817</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>32</v>
@@ -3071,19 +3071,19 @@
         <v>52017</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>33857</v>
+        <v>33802</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>75696</v>
+        <v>77447</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.007262590768319652</v>
+        <v>0.007262590768319651</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.004727056741917491</v>
+        <v>0.00471941890282722</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01056857593025121</v>
+        <v>0.01081303601734188</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>3178158</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3136793</v>
+        <v>3137232</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3220120</v>
+        <v>3220803</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.9148824125559388</v>
+        <v>0.9148824125559387</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9029747662731898</v>
+        <v>0.9031013439356587</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9269618372529991</v>
+        <v>0.9271584388053551</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>4983</v>
@@ -3121,19 +3121,19 @@
         <v>3454077</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3424628</v>
+        <v>3421910</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3481239</v>
+        <v>3481421</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9364370073585618</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9284530866567398</v>
+        <v>0.9277161848983297</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9438009051443402</v>
+        <v>0.9438503444655267</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>8087</v>
@@ -3142,19 +3142,19 @@
         <v>6632235</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6575835</v>
+        <v>6578078</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6681344</v>
+        <v>6677518</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.9259827542746211</v>
+        <v>0.9259827542746212</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9181083051827337</v>
+        <v>0.9184215251071141</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9328392507002625</v>
+        <v>0.9323050689175024</v>
       </c>
     </row>
     <row r="38">
